--- a/temario.xlsx
+++ b/temario.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\jacobo\Documentos\estadias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesina\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B5A2A-5327-4E77-BACE-579B441DC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>Introducción conceptos basicos</t>
   </si>
@@ -297,13 +299,145 @@
   </si>
   <si>
     <t>Oracle Cloud Platform Application Integration 2021 Specialist 1Z0-1042-21</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>1. Crear un modelo de 10 tablas</t>
+  </si>
+  <si>
+    <t>3. Reporte Ordenes de compra</t>
+  </si>
+  <si>
+    <t>4. Conexiones SOAP,REST,SFTP,ERP</t>
+  </si>
+  <si>
+    <t>OIC</t>
+  </si>
+  <si>
+    <t>2. Consultas avanzadas</t>
+  </si>
+  <si>
+    <t>8. Configuracion de servicio de conexión.</t>
+  </si>
+  <si>
+    <t>Visual Builder</t>
+  </si>
+  <si>
+    <t>7.Crear facturas mediante FBDI con adapter ERP cloud.</t>
+  </si>
+  <si>
+    <t>5.Extraccion de datos archivos mediante conexión a SFTP.</t>
+  </si>
+  <si>
+    <t>6.Consumo de reportes de OTBI con servicio SOAP</t>
+  </si>
+  <si>
+    <t>9. Ejecucion de proceso desde pantalla</t>
+  </si>
+  <si>
+    <t>10. Pantalla que obtenga informacion de integraciones</t>
+  </si>
+  <si>
+    <t>11. Pantalla que muestre datos con un business object</t>
+  </si>
+  <si>
+    <t>SOACS</t>
+  </si>
+  <si>
+    <t>12. Composite que muestre un valor predeermiando</t>
+  </si>
+  <si>
+    <t>13. Configuracion de dataSource de BD</t>
+  </si>
+  <si>
+    <t>14. Configuracion de Ftp adapter</t>
+  </si>
+  <si>
+    <t>15. Composite para hacer uso de objetos de BD</t>
+  </si>
+  <si>
+    <t>16. Composite que crea archivos en servidor mediante una cadena Base64</t>
+  </si>
+  <si>
+    <t>Process Aplication</t>
+  </si>
+  <si>
+    <t>17. proceso estructurado y creando un modelo de decisión</t>
+  </si>
+  <si>
+    <t>18. Creacion de una app utilizando QuickStart</t>
+  </si>
+  <si>
+    <t>19. Proceso dinamico utilizando reglas de negocio</t>
+  </si>
+  <si>
+    <t>20. Creacion de una app iniciando desde un fromulario</t>
+  </si>
+  <si>
+    <t>21. Consultas avanzadas</t>
+  </si>
+  <si>
+    <t>Oracle SQL/PLSQP</t>
+  </si>
+  <si>
+    <t>22. Creación de funciones</t>
+  </si>
+  <si>
+    <t>23. Creación de procedimientos</t>
+  </si>
+  <si>
+    <t>24. Paquetes</t>
+  </si>
+  <si>
+    <t>25. Data model Ordenes de compra</t>
+  </si>
+  <si>
+    <t>BI PUBLISHER</t>
+  </si>
+  <si>
+    <t>26. Reporte Ordenes de compra</t>
+  </si>
+  <si>
+    <t>27. Creación de Dashboard</t>
+  </si>
+  <si>
+    <t>28. Rroceso programado</t>
+  </si>
+  <si>
+    <t>29. Reporte con BI Publisher</t>
+  </si>
+  <si>
+    <t>ODI</t>
+  </si>
+  <si>
+    <t>30. Creacion de modelos y topologias</t>
+  </si>
+  <si>
+    <t>31. Planificación de escenarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +445,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -328,13 +517,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,482 +948,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="5:7">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="5:7">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="5:7">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="5:7">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="5:7">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="5:7">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="5:7">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="5:7">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="5:7">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="5:7">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="5:7">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="5:7">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="5:7">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="5:7">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="5:7">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="5:7">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="5:7">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="5:7">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="5:7">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="5:7">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="5:7">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="5:7">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="5:7">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="5:7">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="5:7">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="5:7">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="5:7">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="5:7">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="5:7">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="3:7">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="3:7">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="3:7">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="3:7">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="3:7">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="3:7">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>90</v>
       </c>
@@ -1097,4 +1431,995 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56849E69-8D35-4112-94FE-72BBBD3BEE48}">
+  <dimension ref="D3:T47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="20" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="6"/>
+      <c r="E5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="4:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="4:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="4:20" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="4:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="4:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="4:20" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="4:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temario.xlsx
+++ b/temario.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B5A2A-5327-4E77-BACE-579B441DC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A109FFD-ABE0-4A27-BCE2-53592488CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="ORACLE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>Introducción conceptos basicos</t>
   </si>
@@ -431,6 +432,72 @@
   </si>
   <si>
     <t>31. Planificación de escenarios</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>1. Conexiones SOAP,REST,SFTP,ERP</t>
+  </si>
+  <si>
+    <t>2. Extraccion de datos archivos mediante conexión a SFTP.</t>
+  </si>
+  <si>
+    <t>3. Consumo de reportes de OTBI con servicio SOAP</t>
+  </si>
+  <si>
+    <t>3. Crear facturas mediante FBDI con adapter ERP cloud.</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>1. Configuracion de servicio de conexión</t>
+  </si>
+  <si>
+    <t>2.  Ejecucion de proceso desde pantalla</t>
+  </si>
+  <si>
+    <t>3. Pantalla que obtenga informacion de integraciones</t>
+  </si>
+  <si>
+    <t>1. Composite que muestre un valor predeermiando</t>
+  </si>
+  <si>
+    <t>2. Configuracion de dataSource de BD</t>
+  </si>
+  <si>
+    <t>3. Configuracion de Ftp adapter</t>
+  </si>
+  <si>
+    <t>4. Composite para hacer uso de objetos de BD</t>
+  </si>
+  <si>
+    <t>3.  Composite que crea archivos en servidor mediante una cadena Base64</t>
+  </si>
+  <si>
+    <t>1. Oracle Cloud Platform Application Integration 2021 Specialist 1Z0-1042-21</t>
+  </si>
+  <si>
+    <t>Certificacion</t>
+  </si>
+  <si>
+    <t>1.  proceso estructurado y creando un modelo de decisión</t>
+  </si>
+  <si>
+    <t>2.  Creacion de una app utilizando QuickStart</t>
+  </si>
+  <si>
+    <t>3. Proceso dinamico utilizando reglas de negocio</t>
+  </si>
+  <si>
+    <t>4. Creacion de una app iniciando desde un fromulario</t>
   </si>
 </sst>
 </file>
@@ -459,7 +526,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +575,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -602,11 +675,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +883,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,12 +916,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,28 +934,104 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56849E69-8D35-4112-94FE-72BBBD3BEE48}">
   <dimension ref="D3:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,57 +1814,57 @@
   <sheetData>
     <row r="3" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="10"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="6"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="11" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11" t="s">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="7"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -1550,31 +1915,31 @@
       </c>
     </row>
     <row r="7" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1595,7 +1960,7 @@
       <c r="D9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1616,7 +1981,7 @@
       <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1634,10 +1999,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1659,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1680,7 +2045,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1701,8 +2066,8 @@
         <v>106</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1722,8 +2087,8 @@
         <v>104</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1739,11 +2104,11 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1766,7 +2131,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1787,7 +2152,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1808,7 +2173,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1829,7 +2194,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1844,11 +2209,11 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1871,8 +2236,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1892,8 +2257,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -1913,8 +2278,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1934,9 +2299,9 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1955,9 +2320,9 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1970,15 +2335,15 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1991,15 +2356,15 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2018,10 +2383,10 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2039,10 +2404,10 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2060,11 +2425,11 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2081,11 +2446,11 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="15"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="14"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2096,15 +2461,15 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2123,13 +2488,13 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -2144,14 +2509,14 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="21"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="12"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -2165,14 +2530,14 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="21"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2186,14 +2551,14 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="21"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2201,15 +2566,15 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="15"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2228,15 +2593,15 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="21"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="12"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -2249,15 +2614,15 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="15"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="21"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="12"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -2270,30 +2635,30 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="21"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="12"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="15"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="15"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2312,7 +2677,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2320,7 +2685,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="14"/>
+      <c r="P43" s="5"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -2333,30 +2698,30 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="15"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="14"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="5"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="15"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -2375,16 +2740,16 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="15"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="15"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="14"/>
+      <c r="Q46" s="5"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -2396,16 +2761,16 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="15"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="15"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="14"/>
+      <c r="Q47" s="5"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -2422,4 +2787,715 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967047E-1511-41A3-97A7-7411536FC6CC}">
+  <dimension ref="D3:M75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:I75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="13" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="26"/>
+      <c r="F5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="28"/>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="26"/>
+      <c r="F13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="28"/>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
+        <v>14</v>
+      </c>
+      <c r="I14" s="29">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>18</v>
+      </c>
+      <c r="M14" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="4:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="55"/>
+    </row>
+    <row r="19" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="22" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="26"/>
+      <c r="F24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="28"/>
+      <c r="F25" s="2">
+        <v>21</v>
+      </c>
+      <c r="G25" s="2">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2">
+        <v>26</v>
+      </c>
+      <c r="I25" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="33" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+    </row>
+    <row r="35" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="26"/>
+      <c r="F35" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="28"/>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="29">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>10</v>
+      </c>
+      <c r="L36" s="2">
+        <v>11</v>
+      </c>
+      <c r="M36" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="43"/>
+    </row>
+    <row r="39" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="55"/>
+    </row>
+    <row r="41" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="45"/>
+    </row>
+    <row r="42" spans="5:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="45"/>
+    </row>
+    <row r="48" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="26"/>
+      <c r="F50" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="28"/>
+      <c r="F51" s="2">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="5:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="56" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="25"/>
+    </row>
+    <row r="58" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="26"/>
+      <c r="F58" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="28"/>
+      <c r="F59" s="2">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2">
+        <v>18</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="2">
+        <v>22</v>
+      </c>
+      <c r="K59" s="2">
+        <v>23</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="29"/>
+    </row>
+    <row r="60" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="43"/>
+    </row>
+    <row r="62" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="47"/>
+    </row>
+    <row r="63" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="55"/>
+    </row>
+    <row r="64" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="45"/>
+    </row>
+    <row r="67" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="26"/>
+      <c r="F69" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="28"/>
+      <c r="F70" s="2">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2">
+        <v>25</v>
+      </c>
+      <c r="H70" s="2">
+        <v>26</v>
+      </c>
+      <c r="I70" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="33"/>
+    </row>
+    <row r="74" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" s="39"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="49"/>
+    </row>
+    <row r="75" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temario.xlsx
+++ b/temario.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A109FFD-ABE0-4A27-BCE2-53592488CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC3867-BD79-4E11-9727-5998D20C2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="ORACLE" sheetId="3" r:id="rId3"/>
+    <sheet name="BACKLOG" sheetId="4" r:id="rId2"/>
+    <sheet name="CRONOGRAMA" sheetId="2" r:id="rId3"/>
+    <sheet name="ORACLE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
   <si>
     <t>Introducción conceptos basicos</t>
   </si>
@@ -419,9 +420,6 @@
     <t>27. Creación de Dashboard</t>
   </si>
   <si>
-    <t>28. Rroceso programado</t>
-  </si>
-  <si>
     <t>29. Reporte con BI Publisher</t>
   </si>
   <si>
@@ -498,13 +496,277 @@
   </si>
   <si>
     <t>4. Creacion de una app iniciando desde un fromulario</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>HU_01</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Crear un modelo de 10 tablas</t>
+  </si>
+  <si>
+    <t>Practicar Oracle SQL</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Por hacer</t>
+  </si>
+  <si>
+    <t>HU_02</t>
+  </si>
+  <si>
+    <t>Realizar consultas avanzadas</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>HU_03</t>
+  </si>
+  <si>
+    <t>Generar reporte Órdenes de compra</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>HU_04</t>
+  </si>
+  <si>
+    <t>Practicar OIC</t>
+  </si>
+  <si>
+    <t>HU_05</t>
+  </si>
+  <si>
+    <t>Realizar extraccion de datos archivos mediante conexión a SFTP.</t>
+  </si>
+  <si>
+    <t>HU_06</t>
+  </si>
+  <si>
+    <t>Hacer consumo de reportes de OTBI con servicio SOAP</t>
+  </si>
+  <si>
+    <t>HU_07</t>
+  </si>
+  <si>
+    <t>crear facturas mediante FBDI con adapter ERP cloud.</t>
+  </si>
+  <si>
+    <t>HU_08</t>
+  </si>
+  <si>
+    <t>Practica Visual Builder</t>
+  </si>
+  <si>
+    <t>HU_09</t>
+  </si>
+  <si>
+    <t>HU_10</t>
+  </si>
+  <si>
+    <t>HU_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configuracion de servicio de conexión.</t>
+  </si>
+  <si>
+    <t>Ejecucion de proceso desde pantalla</t>
+  </si>
+  <si>
+    <t>Pantalla que obtenga informacion de integraciones</t>
+  </si>
+  <si>
+    <t>Pantalla que muestre datos con un business object</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Quisiera</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>HU_12</t>
+  </si>
+  <si>
+    <t>HU_13</t>
+  </si>
+  <si>
+    <t>HU_14</t>
+  </si>
+  <si>
+    <t>HU_15</t>
+  </si>
+  <si>
+    <t>HU_16</t>
+  </si>
+  <si>
+    <t>HU_17</t>
+  </si>
+  <si>
+    <t>HU_18</t>
+  </si>
+  <si>
+    <t>HU_19</t>
+  </si>
+  <si>
+    <t>HU_20</t>
+  </si>
+  <si>
+    <t>HU_21</t>
+  </si>
+  <si>
+    <t>HU_22</t>
+  </si>
+  <si>
+    <t>HU_23</t>
+  </si>
+  <si>
+    <t>HU_24</t>
+  </si>
+  <si>
+    <t>HU_25</t>
+  </si>
+  <si>
+    <t>Practica SOA</t>
+  </si>
+  <si>
+    <t>Composite que muestre un valor predeermiando</t>
+  </si>
+  <si>
+    <t>Configuracion de dataSource de BD</t>
+  </si>
+  <si>
+    <t>Configuracion de Ftp adapter</t>
+  </si>
+  <si>
+    <t>Composite para hacer uso de objetos de BD</t>
+  </si>
+  <si>
+    <t>Oracle Cloud Platform Application Integration</t>
+  </si>
+  <si>
+    <t>Examen de certificación</t>
+  </si>
+  <si>
+    <t>Proctica Process Aplication</t>
+  </si>
+  <si>
+    <t>Practica SQL - PL/SQL</t>
+  </si>
+  <si>
+    <t>Consultas avanzadas</t>
+  </si>
+  <si>
+    <t>Creación de funciones</t>
+  </si>
+  <si>
+    <t>Creación de procedimientos</t>
+  </si>
+  <si>
+    <t>Paquetes</t>
+  </si>
+  <si>
+    <t>HU_26</t>
+  </si>
+  <si>
+    <t>HU_27</t>
+  </si>
+  <si>
+    <t>HU_28</t>
+  </si>
+  <si>
+    <t>HU_29</t>
+  </si>
+  <si>
+    <t>HU_30</t>
+  </si>
+  <si>
+    <t>Data model Ordenes de compra</t>
+  </si>
+  <si>
+    <t>Practica OTBI</t>
+  </si>
+  <si>
+    <t>Reporte Ordenes de compra</t>
+  </si>
+  <si>
+    <t>Creación de Dashboard</t>
+  </si>
+  <si>
+    <t>Practica BI PUBLISHER</t>
+  </si>
+  <si>
+    <t>HU_31</t>
+  </si>
+  <si>
+    <t>HU_32</t>
+  </si>
+  <si>
+    <t>HU_33</t>
+  </si>
+  <si>
+    <t>28. Proceso programado</t>
+  </si>
+  <si>
+    <t>Proceso programado</t>
+  </si>
+  <si>
+    <t>Reporte con BI Publisher</t>
+  </si>
+  <si>
+    <t>32. Consumir reporte por "|"</t>
+  </si>
+  <si>
+    <t>Practica ODI</t>
+  </si>
+  <si>
+    <t>Creacion de modelos y topologias</t>
+  </si>
+  <si>
+    <t>Planificación de escenarios</t>
+  </si>
+  <si>
+    <t>Consumir reporte por "|"</t>
+  </si>
+  <si>
+    <t>33. Cargar datos a Oracle Fusion</t>
+  </si>
+  <si>
+    <t>Cargar datos a Oracle Fusion</t>
+  </si>
+  <si>
+    <t>HU_34</t>
+  </si>
+  <si>
+    <t>Alto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +787,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,8 +867,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -867,11 +1159,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,54 +1262,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,6 +1340,129 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,11 +2229,843 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC23240-A3C0-4CDC-BB7A-31DCBD4A06B3}">
+  <dimension ref="D1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="57">
+        <v>1</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="57">
+        <v>1</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="57">
+        <v>1</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="57">
+        <v>2</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="57">
+        <v>2</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="57">
+        <v>2</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="57">
+        <v>2</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="57">
+        <v>3</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="57">
+        <v>3</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="57">
+        <v>3</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="59">
+        <v>3</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="67">
+        <v>4</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="59">
+        <v>4</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="67">
+        <v>4</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="67">
+        <v>4</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="63">
+        <v>4</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="63">
+        <v>5</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="63">
+        <v>5</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="63">
+        <v>5</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="63">
+        <v>5</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="63">
+        <v>5</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="63">
+        <v>6</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="59">
+        <v>6</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="67">
+        <v>6</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="63">
+        <v>6</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="59">
+        <v>7</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="67">
+        <v>7</v>
+      </c>
+      <c r="J29" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="59">
+        <v>7</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="67">
+        <v>8</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" s="63">
+        <v>8</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="59">
+        <v>9</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="65">
+        <v>9</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="67">
+        <v>9</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="67">
+        <v>9</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56849E69-8D35-4112-94FE-72BBBD3BEE48}">
-  <dimension ref="D3:T47"/>
+  <dimension ref="D3:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,57 +3076,57 @@
   <sheetData>
     <row r="3" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
     </row>
     <row r="5" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="14"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="19" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="19" t="s">
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="21"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="15"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -2672,7 +3934,7 @@
     </row>
     <row r="43" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2693,7 +3955,7 @@
     </row>
     <row r="44" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2714,7 +3976,7 @@
     </row>
     <row r="45" spans="4:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="6"/>
@@ -2735,7 +3997,7 @@
     </row>
     <row r="46" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2756,7 +4018,7 @@
     </row>
     <row r="47" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2775,6 +4037,48 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
+    <row r="48" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="4:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D4:D6"/>
@@ -2789,12 +4093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967047E-1511-41A3-97A7-7411536FC6CC}">
   <dimension ref="D3:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:I75"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,27 +4111,27 @@
   <sheetData>
     <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="26"/>
-      <c r="F5" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="28"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
@@ -2837,87 +4141,87 @@
       <c r="H6" s="2">
         <v>7</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="31"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="18" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="50"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="26"/>
-      <c r="F13" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="19" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="27"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="4:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="28"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="2">
         <v>12</v>
       </c>
@@ -2927,7 +4231,7 @@
       <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="13">
         <v>15</v>
       </c>
       <c r="J14" s="2">
@@ -2939,98 +4243,98 @@
       <c r="L14" s="2">
         <v>18</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="13">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="14" t="s">
         <v>100</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="31"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="31"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="4:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="40"/>
+      <c r="E16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="24"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="43"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="43"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="52" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="55"/>
-    </row>
-    <row r="19" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="49"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="22" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="26"/>
-      <c r="F24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="27"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="28"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="2">
         <v>21</v>
       </c>
@@ -3040,45 +4344,45 @@
       <c r="H25" s="2">
         <v>26</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="40"/>
+      <c r="E27" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="24"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="49"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="3" t="s">
@@ -3087,41 +4391,41 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="40"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="33" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
     </row>
     <row r="35" spans="5:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="26"/>
-      <c r="F35" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="27"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="28"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="2">
         <v>2</v>
       </c>
@@ -3131,7 +4435,7 @@
       <c r="H36" s="2">
         <v>4</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="13">
         <v>5</v>
       </c>
       <c r="J36" s="2">
@@ -3143,169 +4447,169 @@
       <c r="L36" s="2">
         <v>11</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="14" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="31"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="31"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="40"/>
+      <c r="E38" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="24"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-    </row>
-    <row r="40" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="52" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="39"/>
+    </row>
+    <row r="41" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="55"/>
-    </row>
-    <row r="41" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="35" t="s">
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="5:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="45"/>
-    </row>
-    <row r="42" spans="5:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="45"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="48" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
     </row>
     <row r="50" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="26"/>
-      <c r="F50" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="27"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="28"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="2">
         <v>15</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="29"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="30" t="s">
-        <v>152</v>
+      <c r="E52" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="31"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="5:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="40"/>
+        <v>150</v>
+      </c>
+      <c r="F53" s="24"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="12"/>
     </row>
     <row r="56" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="25"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
     </row>
     <row r="58" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E58" s="26"/>
-      <c r="F58" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="27"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="55"/>
     </row>
     <row r="59" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="28"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="2">
         <v>17</v>
       </c>
@@ -3313,7 +4617,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="29"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="2">
         <v>22</v>
       </c>
@@ -3321,96 +4625,96 @@
         <v>23</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="M59" s="29"/>
+      <c r="M59" s="13"/>
     </row>
     <row r="60" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="14" t="s">
         <v>116</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="31"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="31"/>
+      <c r="M60" s="15"/>
     </row>
     <row r="61" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="40"/>
+      <c r="E61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="24"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="43"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
-      <c r="M61" s="43"/>
+      <c r="M61" s="27"/>
     </row>
     <row r="62" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="30"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="47"/>
-    </row>
-    <row r="63" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="52" t="s">
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="39"/>
+    </row>
+    <row r="64" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="55"/>
-    </row>
-    <row r="64" spans="5:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="67" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="25"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="54"/>
     </row>
     <row r="69" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="26"/>
-      <c r="F69" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="27"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="55"/>
     </row>
     <row r="70" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="28"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="2">
         <v>21</v>
       </c>
@@ -3420,45 +4724,45 @@
       <c r="H70" s="2">
         <v>26</v>
       </c>
-      <c r="I70" s="29">
+      <c r="I70" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
-      <c r="I71" s="31"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="40"/>
+      <c r="E72" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="24"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="33"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="49"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="33"/>
     </row>
     <row r="75" spans="5:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="3" t="s">
@@ -3467,17 +4771,13 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="40"/>
+      <c r="I75" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
@@ -3492,9 +4792,13 @@
     <mergeCell ref="J35:M35"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F69:I69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
